--- a/medicine/Mort/Yad_Kennedy/Yad_Kennedy.xlsx
+++ b/medicine/Mort/Yad_Kennedy/Yad_Kennedy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yad Kennedy (en hébreu : יד קנדי) situé dans la région de Mateh Yehuda près de Jérusalem, en Israël, est un mémorial consacré à John Fitzgerald Kennedy, le 35e président des États-Unis, qui a été assassiné à Dallas en 1963.
 Le mémorial, haut de 18 mètres est en forme de souche d'arbre coupée, symbolisant une vie écourtée. À l'intérieur, une flamme éternelle y brûle. Il est entouré de 51 colonnes de béton, une pour chacun des cinquante États des États-Unis et une pour Washington, la capitale de cette nation. Les emblèmes des États et du district sont affichés sur chacune des colonnes et les colonnes sont séparées par des panneaux de verre.
